--- a/QHKH/BIEUMAUEXCEL/BM06CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM06CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C2562-81F8-489D-80EA-5DD55F25B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38B783-368A-4177-BD01-8DB17699D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -384,6 +384,9 @@
   <si>
     <t>KẾ HOẠCH SỬ DỤNG ĐẤT NĂM 20...
 HUYỆN (QUẬN, THỊ XÃ, THÀNH PHỐ THUỘC TỈNH, THÀNH PHỐ THUỘC THÀNH PHỐ TRỰC THUỘC TRUNG ƯƠNG) …</t>
+  </si>
+  <si>
+    <t>BM06/CH</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,6 +563,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,10 +582,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,22 +916,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -934,49 +940,52 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="Y2" s="19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
